--- a/氣象性能評估工具V2/data/obs/backup/2016-06-08_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-08_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-08 00:00:00</t>
+    <t>2016-06-08-00</t>
   </si>
   <si>
     <t>20.5</t>
@@ -151,7 +151,7 @@
     <t>26.1</t>
   </si>
   <si>
-    <t>2016-06-08 01:00:00</t>
+    <t>2016-06-08-01</t>
   </si>
   <si>
     <t>20.8</t>
@@ -199,7 +199,7 @@
     <t>26.3</t>
   </si>
   <si>
-    <t>2016-06-08 02:00:00</t>
+    <t>2016-06-08-02</t>
   </si>
   <si>
     <t>19.8</t>
@@ -226,7 +226,7 @@
     <t>27.5</t>
   </si>
   <si>
-    <t>2016-06-08 03:00:00</t>
+    <t>2016-06-08-03</t>
   </si>
   <si>
     <t>24.4</t>
@@ -250,7 +250,7 @@
     <t>5.4</t>
   </si>
   <si>
-    <t>2016-06-08 04:00:00</t>
+    <t>2016-06-08-04</t>
   </si>
   <si>
     <t>20.3</t>
@@ -268,7 +268,7 @@
     <t>5.3</t>
   </si>
   <si>
-    <t>2016-06-08 05:00:00</t>
+    <t>2016-06-08-05</t>
   </si>
   <si>
     <t>13.0</t>
@@ -289,7 +289,7 @@
     <t>27.4</t>
   </si>
   <si>
-    <t>2016-06-08 06:00:00</t>
+    <t>2016-06-08-06</t>
   </si>
   <si>
     <t>21.9</t>
@@ -316,7 +316,7 @@
     <t>28.1</t>
   </si>
   <si>
-    <t>2016-06-08 07:00:00</t>
+    <t>2016-06-08-07</t>
   </si>
   <si>
     <t>23.3</t>
@@ -355,7 +355,7 @@
     <t>6.9</t>
   </si>
   <si>
-    <t>2016-06-08 08:00:00</t>
+    <t>2016-06-08-08</t>
   </si>
   <si>
     <t>23.8</t>
@@ -397,7 +397,7 @@
     <t>28.6</t>
   </si>
   <si>
-    <t>2016-06-08 09:00:00</t>
+    <t>2016-06-08-09</t>
   </si>
   <si>
     <t>23.4</t>
@@ -433,7 +433,7 @@
     <t>30.1</t>
   </si>
   <si>
-    <t>2016-06-08 10:00:00</t>
+    <t>2016-06-08-10</t>
   </si>
   <si>
     <t>33.0</t>
@@ -463,7 +463,7 @@
     <t>28.2</t>
   </si>
   <si>
-    <t>2016-06-08 11:00:00</t>
+    <t>2016-06-08-11</t>
   </si>
   <si>
     <t>32.5</t>
@@ -487,7 +487,7 @@
     <t>29.4</t>
   </si>
   <si>
-    <t>2016-06-08 12:00:00</t>
+    <t>2016-06-08-12</t>
   </si>
   <si>
     <t>30.2</t>
@@ -508,7 +508,7 @@
     <t>8.9</t>
   </si>
   <si>
-    <t>2016-06-08 13:00:00</t>
+    <t>2016-06-08-13</t>
   </si>
   <si>
     <t>32.8</t>
@@ -520,7 +520,7 @@
     <t>9.4</t>
   </si>
   <si>
-    <t>2016-06-08 14:00:00</t>
+    <t>2016-06-08-14</t>
   </si>
   <si>
     <t>23.0</t>
@@ -529,13 +529,13 @@
     <t>16.0</t>
   </si>
   <si>
-    <t>2016-06-08 15:00:00</t>
+    <t>2016-06-08-15</t>
   </si>
   <si>
     <t>9.2</t>
   </si>
   <si>
-    <t>2016-06-08 16:00:00</t>
+    <t>2016-06-08-16</t>
   </si>
   <si>
     <t>29.1</t>
@@ -544,7 +544,7 @@
     <t>9.7</t>
   </si>
   <si>
-    <t>2016-06-08 17:00:00</t>
+    <t>2016-06-08-17</t>
   </si>
   <si>
     <t>22.4</t>
@@ -559,7 +559,7 @@
     <t>6.5</t>
   </si>
   <si>
-    <t>2016-06-08 18:00:00</t>
+    <t>2016-06-08-18</t>
   </si>
   <si>
     <t>23.2</t>
@@ -574,7 +574,7 @@
     <t>6.2</t>
   </si>
   <si>
-    <t>2016-06-08 19:00:00</t>
+    <t>2016-06-08-19</t>
   </si>
   <si>
     <t>20.7</t>
@@ -583,7 +583,7 @@
     <t>13.9</t>
   </si>
   <si>
-    <t>2016-06-08 20:00:00</t>
+    <t>2016-06-08-20</t>
   </si>
   <si>
     <t>21.1</t>
@@ -592,7 +592,7 @@
     <t>12.8</t>
   </si>
   <si>
-    <t>2016-06-08 21:00:00</t>
+    <t>2016-06-08-21</t>
   </si>
   <si>
     <t>22.8</t>
@@ -601,7 +601,7 @@
     <t>5.5</t>
   </si>
   <si>
-    <t>2016-06-08 22:00:00</t>
+    <t>2016-06-08-22</t>
   </si>
   <si>
     <t>20.6</t>
@@ -610,7 +610,7 @@
     <t>12.9</t>
   </si>
   <si>
-    <t>2016-06-08 23:00:00</t>
+    <t>2016-06-08-23</t>
   </si>
   <si>
     <t>20.9</t>
